--- a/rc-data-analysis/data/mock/sample_mock_rc_data.xlsx
+++ b/rc-data-analysis/data/mock/sample_mock_rc_data.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="19">
   <si>
     <t>weeks</t>
   </si>
@@ -47,34 +47,34 @@
     <t>activity_status</t>
   </si>
   <si>
-    <t>5969775737476310</t>
+    <t>916288205654472</t>
   </si>
   <si>
-    <t>09995451837</t>
+    <t>09667616603</t>
   </si>
   <si>
-    <t>757459240388143</t>
+    <t>724420163172039</t>
   </si>
   <si>
-    <t>09327282370</t>
+    <t>09717299403</t>
   </si>
   <si>
-    <t>669054555175578</t>
+    <t>608110209703423</t>
   </si>
   <si>
-    <t>09676539743</t>
+    <t>09385543559</t>
   </si>
   <si>
-    <t>331705182739908</t>
+    <t>4120413406537210</t>
   </si>
   <si>
-    <t>09657935402</t>
+    <t>09111771832</t>
   </si>
   <si>
-    <t>8503579806746710</t>
+    <t>390600300410458</t>
   </si>
   <si>
-    <t>09531637402</t>
+    <t>09509124347</t>
   </si>
 </sst>
 </file>
@@ -436,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -473,7 +473,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2">
-        <v>43445</v>
+        <v>43564</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -482,16 +482,16 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>19.2</v>
+        <v>11.1</v>
       </c>
       <c r="F2">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -502,7 +502,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2">
-        <v>43452</v>
+        <v>43571</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -511,19 +511,19 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1.1</v>
+        <v>6.5</v>
       </c>
       <c r="F3">
+        <v>5.7</v>
+      </c>
+      <c r="G3">
         <v>4</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -531,7 +531,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2">
-        <v>43459</v>
+        <v>43578</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -540,19 +540,19 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>20.1</v>
+        <v>18.2</v>
       </c>
       <c r="F4">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2">
-        <v>43466</v>
+        <v>43585</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -569,16 +569,16 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>12.1</v>
+        <v>22.3</v>
       </c>
       <c r="F5">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2">
-        <v>43473</v>
+        <v>43592</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -598,16 +598,16 @@
         <v>10</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E6">
-        <v>14.8</v>
+        <v>15.4</v>
       </c>
       <c r="F6">
-        <v>7.7</v>
+        <v>9</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -618,7 +618,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2">
-        <v>43480</v>
+        <v>43599</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -627,19 +627,19 @@
         <v>10</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="E7">
-        <v>8</v>
+        <v>19.2</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -647,7 +647,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="2">
-        <v>43487</v>
+        <v>43606</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -656,19 +656,19 @@
         <v>10</v>
       </c>
       <c r="D8">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="E8">
-        <v>23</v>
+        <v>15.1</v>
       </c>
       <c r="F8">
-        <v>3.8</v>
+        <v>5.6</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -676,7 +676,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="2">
-        <v>43494</v>
+        <v>43613</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -685,19 +685,19 @@
         <v>10</v>
       </c>
       <c r="D9">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>12.9</v>
+        <v>16.2</v>
       </c>
       <c r="F9">
-        <v>6.7</v>
+        <v>8.4</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="2">
-        <v>43501</v>
+        <v>43620</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -714,19 +714,19 @@
         <v>10</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E10">
-        <v>11.6</v>
+        <v>13.5</v>
       </c>
       <c r="F10">
-        <v>6.9</v>
+        <v>5.4</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="2">
-        <v>43508</v>
+        <v>43627</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -743,19 +743,19 @@
         <v>10</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E11">
-        <v>19.3</v>
+        <v>3.2</v>
       </c>
       <c r="F11">
-        <v>9.9</v>
+        <v>6.9</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="2">
-        <v>43515</v>
+        <v>43634</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -772,16 +772,16 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="E12">
-        <v>23.5</v>
+        <v>4.9</v>
       </c>
       <c r="F12">
-        <v>6.8</v>
+        <v>5.5</v>
       </c>
       <c r="G12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -792,7 +792,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="2">
-        <v>43522</v>
+        <v>43641</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
@@ -801,16 +801,16 @@
         <v>10</v>
       </c>
       <c r="D13">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="E13">
-        <v>4.9</v>
+        <v>7.3</v>
       </c>
       <c r="F13">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2">
-        <v>43529</v>
+        <v>43648</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
@@ -830,19 +830,19 @@
         <v>10</v>
       </c>
       <c r="D14">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E14">
-        <v>19.6</v>
+        <v>1.1</v>
       </c>
       <c r="F14">
-        <v>3.5</v>
+        <v>6.9</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="2">
-        <v>43536</v>
+        <v>43655</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F15">
-        <v>11.3</v>
+        <v>7.4</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="2">
-        <v>43543</v>
+        <v>43662</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
@@ -888,19 +888,19 @@
         <v>10</v>
       </c>
       <c r="D16">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>12</v>
+        <v>1.3</v>
       </c>
       <c r="F16">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -908,7 +908,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="2">
-        <v>43550</v>
+        <v>43669</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
@@ -917,16 +917,16 @@
         <v>10</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E17">
-        <v>9.9</v>
+        <v>13.6</v>
       </c>
       <c r="F17">
-        <v>8.4</v>
+        <v>6.4</v>
       </c>
       <c r="G17">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -937,7 +937,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="2">
-        <v>43557</v>
+        <v>43676</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
@@ -946,19 +946,19 @@
         <v>10</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>20.5</v>
+        <v>6.7</v>
       </c>
       <c r="F18">
-        <v>7.1</v>
+        <v>6.3</v>
       </c>
       <c r="G18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="2">
-        <v>43564</v>
+        <v>43683</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
@@ -975,19 +975,19 @@
         <v>10</v>
       </c>
       <c r="D19">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="E19">
-        <v>20.6</v>
+        <v>5.1</v>
       </c>
       <c r="F19">
-        <v>8.199999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="G19">
         <v>5</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -995,7 +995,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="2">
-        <v>43571</v>
+        <v>43690</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
@@ -1004,19 +1004,19 @@
         <v>10</v>
       </c>
       <c r="D20">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="E20">
-        <v>0.6</v>
+        <v>22.6</v>
       </c>
       <c r="F20">
-        <v>4.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="2">
-        <v>43578</v>
+        <v>43697</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
@@ -1036,16 +1036,16 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.7</v>
+        <v>10.8</v>
       </c>
       <c r="F21">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="G21">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="2">
-        <v>43585</v>
+        <v>43704</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
@@ -1062,19 +1062,19 @@
         <v>10</v>
       </c>
       <c r="D22">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>9.300000000000001</v>
+        <v>16.3</v>
       </c>
       <c r="F22">
-        <v>5.1</v>
+        <v>7.9</v>
       </c>
       <c r="G22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="2">
-        <v>43592</v>
+        <v>43711</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
@@ -1091,19 +1091,19 @@
         <v>10</v>
       </c>
       <c r="D23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>7</v>
+        <v>5.4</v>
       </c>
       <c r="F23">
-        <v>6.2</v>
+        <v>5</v>
       </c>
       <c r="G23">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="2">
-        <v>43599</v>
+        <v>43718</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
@@ -1123,13 +1123,13 @@
         <v>20</v>
       </c>
       <c r="E24">
-        <v>7.8</v>
+        <v>17.7</v>
       </c>
       <c r="F24">
-        <v>7.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G24">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="2">
-        <v>43606</v>
+        <v>43725</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
@@ -1149,16 +1149,16 @@
         <v>10</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E25">
-        <v>20.4</v>
+        <v>13.9</v>
       </c>
       <c r="F25">
-        <v>8.4</v>
+        <v>6.9</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="2">
-        <v>43613</v>
+        <v>43732</v>
       </c>
       <c r="B26" t="s">
         <v>9</v>
@@ -1178,19 +1178,19 @@
         <v>10</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E26">
-        <v>3.8</v>
+        <v>15.8</v>
       </c>
       <c r="F26">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="G26">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1198,7 +1198,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="2">
-        <v>43620</v>
+        <v>43739</v>
       </c>
       <c r="B27" t="s">
         <v>9</v>
@@ -1210,16 +1210,16 @@
         <v>1000</v>
       </c>
       <c r="E27">
-        <v>16.5</v>
+        <v>4.9</v>
       </c>
       <c r="F27">
-        <v>10.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="2">
-        <v>43627</v>
+        <v>43746</v>
       </c>
       <c r="B28" t="s">
         <v>9</v>
@@ -1236,19 +1236,19 @@
         <v>10</v>
       </c>
       <c r="D28">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E28">
-        <v>1.7</v>
+        <v>5.9</v>
       </c>
       <c r="F28">
-        <v>5.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1256,7 +1256,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="2">
-        <v>43634</v>
+        <v>43753</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
@@ -1265,16 +1265,16 @@
         <v>10</v>
       </c>
       <c r="D29">
-        <v>800</v>
+        <v>20</v>
       </c>
       <c r="E29">
-        <v>22.2</v>
+        <v>5.5</v>
       </c>
       <c r="F29">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="G29">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="2">
-        <v>43641</v>
+        <v>43760</v>
       </c>
       <c r="B30" t="s">
         <v>9</v>
@@ -1294,21 +1294,514 @@
         <v>10</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E30">
-        <v>10.5</v>
+        <v>5.5</v>
       </c>
       <c r="F30">
-        <v>6</v>
+        <v>7.1</v>
       </c>
       <c r="G30">
+        <v>8</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="2">
+        <v>43767</v>
+      </c>
+      <c r="B31" t="s">
         <v>9</v>
       </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>20</v>
+      </c>
+      <c r="E31">
+        <v>16.9</v>
+      </c>
+      <c r="F31">
+        <v>5.8</v>
+      </c>
+      <c r="G31">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="2">
+        <v>43774</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>22.3</v>
+      </c>
+      <c r="F32">
+        <v>9</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="2">
+        <v>43781</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>1.8</v>
+      </c>
+      <c r="F33">
+        <v>8.1</v>
+      </c>
+      <c r="G33">
+        <v>9</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="2">
+        <v>43788</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>18.4</v>
+      </c>
+      <c r="F34">
+        <v>7.6</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="2">
+        <v>43795</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>20</v>
+      </c>
+      <c r="E35">
+        <v>7.4</v>
+      </c>
+      <c r="F35">
+        <v>7</v>
+      </c>
+      <c r="G35">
+        <v>7</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="2">
+        <v>43802</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>200</v>
+      </c>
+      <c r="E36">
+        <v>17.6</v>
+      </c>
+      <c r="F36">
+        <v>7.4</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="2">
+        <v>43809</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <v>30</v>
+      </c>
+      <c r="E37">
+        <v>8.6</v>
+      </c>
+      <c r="F37">
+        <v>8.5</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="2">
+        <v>43816</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>11.3</v>
+      </c>
+      <c r="F38">
+        <v>7.9</v>
+      </c>
+      <c r="G38">
+        <v>7</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="2">
+        <v>43823</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>100</v>
+      </c>
+      <c r="E39">
+        <v>2.7</v>
+      </c>
+      <c r="F39">
+        <v>5.4</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="2">
+        <v>43830</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>21.1</v>
+      </c>
+      <c r="F40">
+        <v>7.1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="2">
+        <v>43837</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>800</v>
+      </c>
+      <c r="E41">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="F41">
+        <v>5.9</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="2">
+        <v>43844</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>20</v>
+      </c>
+      <c r="E42">
+        <v>20.1</v>
+      </c>
+      <c r="F42">
+        <v>7.1</v>
+      </c>
+      <c r="G42">
+        <v>3</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="2">
+        <v>43851</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>20</v>
+      </c>
+      <c r="E43">
+        <v>6.8</v>
+      </c>
+      <c r="F43">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="G43">
+        <v>10</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="2">
+        <v>43858</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>2.6</v>
+      </c>
+      <c r="F44">
+        <v>7.8</v>
+      </c>
+      <c r="G44">
+        <v>5</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="2">
+        <v>43865</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>19.1</v>
+      </c>
+      <c r="F45">
+        <v>6.3</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="2">
+        <v>43872</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <v>300</v>
+      </c>
+      <c r="E46">
+        <v>1.5</v>
+      </c>
+      <c r="F46">
+        <v>7.3</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
+      <c r="H46">
+        <v>2</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="2">
+        <v>43879</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47">
+        <v>500</v>
+      </c>
+      <c r="E47">
+        <v>0.6</v>
+      </c>
+      <c r="F47">
+        <v>7.2</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
         <v>0</v>
       </c>
     </row>
@@ -1319,7 +1812,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1356,7 +1849,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2">
-        <v>43522</v>
+        <v>43494</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -1368,16 +1861,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>17.9</v>
+        <v>12.4</v>
       </c>
       <c r="F2">
-        <v>5.8</v>
+        <v>8.4</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1385,7 +1878,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2">
-        <v>43529</v>
+        <v>43501</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -1394,16 +1887,16 @@
         <v>12</v>
       </c>
       <c r="D3">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="F3">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1414,7 +1907,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2">
-        <v>43536</v>
+        <v>43508</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -1423,19 +1916,19 @@
         <v>12</v>
       </c>
       <c r="D4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>20.1</v>
+        <v>17.7</v>
       </c>
       <c r="F4">
-        <v>9.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1443,7 +1936,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2">
-        <v>43543</v>
+        <v>43515</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -1452,19 +1945,19 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>12.9</v>
+        <v>22.3</v>
       </c>
       <c r="F5">
-        <v>8.699999999999999</v>
+        <v>8</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1472,7 +1965,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2">
-        <v>43550</v>
+        <v>43522</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1484,16 +1977,16 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15.4</v>
+        <v>16</v>
       </c>
       <c r="F6">
-        <v>5.3</v>
+        <v>9</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1501,7 +1994,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2">
-        <v>43557</v>
+        <v>43529</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -1510,19 +2003,19 @@
         <v>12</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E7">
-        <v>9.199999999999999</v>
+        <v>20.3</v>
       </c>
       <c r="F7">
-        <v>6.6</v>
+        <v>5.6</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1530,7 +2023,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="2">
-        <v>43564</v>
+        <v>43536</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -1539,19 +2032,19 @@
         <v>12</v>
       </c>
       <c r="D8">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="E8">
-        <v>22.3</v>
+        <v>15.6</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1559,7 +2052,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="2">
-        <v>43571</v>
+        <v>43543</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -1568,19 +2061,19 @@
         <v>12</v>
       </c>
       <c r="D9">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>13.6</v>
+        <v>14.9</v>
       </c>
       <c r="F9">
-        <v>4.5</v>
+        <v>8.6</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1588,7 +2081,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="2">
-        <v>43578</v>
+        <v>43550</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -1597,19 +2090,19 @@
         <v>12</v>
       </c>
       <c r="D10">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="E10">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="F10">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1617,7 +2110,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="2">
-        <v>43585</v>
+        <v>43557</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -1629,16 +2122,16 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>19.8</v>
+        <v>1.6</v>
       </c>
       <c r="F11">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1646,7 +2139,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="2">
-        <v>43592</v>
+        <v>43564</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -1655,19 +2148,19 @@
         <v>12</v>
       </c>
       <c r="D12">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E12">
-        <v>22.3</v>
+        <v>4.9</v>
       </c>
       <c r="F12">
-        <v>6.8</v>
+        <v>4.8</v>
       </c>
       <c r="G12">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1675,7 +2168,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="2">
-        <v>43599</v>
+        <v>43571</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -1684,19 +2177,19 @@
         <v>12</v>
       </c>
       <c r="D13">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>6.2</v>
+        <v>7.3</v>
       </c>
       <c r="F13">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1704,7 +2197,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2">
-        <v>43606</v>
+        <v>43578</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -1713,19 +2206,19 @@
         <v>12</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="E14">
-        <v>17.4</v>
+        <v>1.1</v>
       </c>
       <c r="F14">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1733,7 +2226,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="2">
-        <v>43613</v>
+        <v>43585</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -1745,16 +2238,16 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>21.5</v>
+        <v>10.7</v>
       </c>
       <c r="F15">
-        <v>8.800000000000001</v>
+        <v>7.1</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1762,7 +2255,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="2">
-        <v>43620</v>
+        <v>43592</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -1774,16 +2267,16 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>10.7</v>
+        <v>0.7</v>
       </c>
       <c r="F16">
-        <v>5.3</v>
+        <v>9</v>
       </c>
       <c r="G16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1791,7 +2284,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="2">
-        <v>43627</v>
+        <v>43599</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -1800,19 +2293,19 @@
         <v>12</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E17">
-        <v>12.3</v>
+        <v>12.9</v>
       </c>
       <c r="F17">
-        <v>8.4</v>
+        <v>6.7</v>
       </c>
       <c r="G17">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1820,7 +2313,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="2">
-        <v>43634</v>
+        <v>43606</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -1832,16 +2325,16 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.6</v>
+        <v>7.2</v>
       </c>
       <c r="F18">
-        <v>10.4</v>
+        <v>7</v>
       </c>
       <c r="G18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1849,7 +2342,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="2">
-        <v>43641</v>
+        <v>43613</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -1858,19 +2351,19 @@
         <v>12</v>
       </c>
       <c r="D19">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="E19">
-        <v>19.4</v>
+        <v>4.5</v>
       </c>
       <c r="F19">
-        <v>4.6</v>
+        <v>8.9</v>
       </c>
       <c r="G19">
         <v>5</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1878,7 +2371,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="2">
-        <v>43648</v>
+        <v>43620</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -1890,13 +2383,13 @@
         <v>1000</v>
       </c>
       <c r="E20">
-        <v>0.3</v>
+        <v>22.6</v>
       </c>
       <c r="F20">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1907,7 +2400,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="2">
-        <v>43655</v>
+        <v>43627</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
@@ -1919,13 +2412,13 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>10.3</v>
+        <v>9.1</v>
       </c>
       <c r="F21">
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
       <c r="G21">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -1936,7 +2429,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="2">
-        <v>43662</v>
+        <v>43634</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -1945,19 +2438,19 @@
         <v>12</v>
       </c>
       <c r="D22">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>7</v>
+        <v>16.1</v>
       </c>
       <c r="F22">
-        <v>7.4</v>
+        <v>8.1</v>
       </c>
       <c r="G22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1965,7 +2458,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="2">
-        <v>43669</v>
+        <v>43641</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
@@ -1974,19 +2467,19 @@
         <v>12</v>
       </c>
       <c r="D23">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>5.8</v>
       </c>
       <c r="F23">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="G23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1994,7 +2487,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="2">
-        <v>43676</v>
+        <v>43648</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -2006,16 +2499,16 @@
         <v>30</v>
       </c>
       <c r="E24">
-        <v>8.4</v>
+        <v>17.1</v>
       </c>
       <c r="F24">
-        <v>7.5</v>
+        <v>8.1</v>
       </c>
       <c r="G24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2023,7 +2516,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="2">
-        <v>43683</v>
+        <v>43655</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
@@ -2032,19 +2525,19 @@
         <v>12</v>
       </c>
       <c r="D25">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>18.2</v>
+        <v>12</v>
       </c>
       <c r="F25">
-        <v>7.9</v>
+        <v>6.9</v>
       </c>
       <c r="G25">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2052,7 +2545,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="2">
-        <v>43690</v>
+        <v>43662</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
@@ -2061,13 +2554,13 @@
         <v>12</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E26">
-        <v>4</v>
+        <v>16.4</v>
       </c>
       <c r="F26">
-        <v>7.1</v>
+        <v>5.2</v>
       </c>
       <c r="G26">
         <v>5</v>
@@ -2081,7 +2574,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="2">
-        <v>43697</v>
+        <v>43669</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
@@ -2090,19 +2583,19 @@
         <v>12</v>
       </c>
       <c r="D27">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="E27">
-        <v>13.7</v>
+        <v>4.1</v>
       </c>
       <c r="F27">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2110,7 +2603,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="2">
-        <v>43704</v>
+        <v>43676</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
@@ -2119,19 +2612,19 @@
         <v>12</v>
       </c>
       <c r="D28">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="F28">
-        <v>6.7</v>
+        <v>7.8</v>
       </c>
       <c r="G28">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2139,7 +2632,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="2">
-        <v>43711</v>
+        <v>43683</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
@@ -2148,19 +2641,19 @@
         <v>12</v>
       </c>
       <c r="D29">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="E29">
-        <v>22.2</v>
+        <v>6.5</v>
       </c>
       <c r="F29">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="G29">
         <v>9</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -2168,7 +2661,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="2">
-        <v>43718</v>
+        <v>43690</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
@@ -2180,18 +2673,511 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="F30">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="G30">
         <v>10</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="2">
+        <v>43697</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+      <c r="E31">
+        <v>16.1</v>
+      </c>
+      <c r="F31">
+        <v>6.9</v>
+      </c>
+      <c r="G31">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="2">
+        <v>43704</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>22.9</v>
+      </c>
+      <c r="F32">
+        <v>8.5</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="2">
+        <v>43711</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33">
+        <v>70</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>7.8</v>
+      </c>
+      <c r="G33">
+        <v>10</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="2">
+        <v>43718</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>17.8</v>
+      </c>
+      <c r="F34">
+        <v>8.4</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="2">
+        <v>43725</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35">
+        <v>20</v>
+      </c>
+      <c r="E35">
+        <v>5.8</v>
+      </c>
+      <c r="F35">
+        <v>7.4</v>
+      </c>
+      <c r="G35">
+        <v>8</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="2">
+        <v>43732</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36">
+        <v>1000</v>
+      </c>
+      <c r="E36">
+        <v>18.8</v>
+      </c>
+      <c r="F36">
+        <v>7.8</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="2">
+        <v>43739</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>9.9</v>
+      </c>
+      <c r="F37">
+        <v>8.6</v>
+      </c>
+      <c r="G37">
+        <v>7</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="2">
+        <v>43746</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>11.9</v>
+      </c>
+      <c r="F38">
+        <v>7.6</v>
+      </c>
+      <c r="G38">
+        <v>6</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="2">
+        <v>43753</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39">
+        <v>100</v>
+      </c>
+      <c r="E39">
+        <v>2.7</v>
+      </c>
+      <c r="F39">
+        <v>5.8</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="2">
+        <v>43760</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>20.1</v>
+      </c>
+      <c r="F40">
+        <v>7.1</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="2">
+        <v>43767</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41">
+        <v>800</v>
+      </c>
+      <c r="E41">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="F41">
+        <v>5.9</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="2">
+        <v>43774</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>17.7</v>
+      </c>
+      <c r="F42">
+        <v>9.1</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="2">
+        <v>43781</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43">
+        <v>30</v>
+      </c>
+      <c r="E43">
+        <v>6.9</v>
+      </c>
+      <c r="F43">
+        <v>8.6</v>
+      </c>
+      <c r="G43">
+        <v>8</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="2">
+        <v>43788</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>2.6</v>
+      </c>
+      <c r="F44">
+        <v>6.7</v>
+      </c>
+      <c r="G44">
+        <v>4</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="2">
+        <v>43795</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>19.2</v>
+      </c>
+      <c r="F45">
+        <v>6.5</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="2">
+        <v>43802</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46">
+        <v>1000</v>
+      </c>
+      <c r="E46">
+        <v>1.4</v>
+      </c>
+      <c r="F46">
+        <v>6.1</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="2">
+        <v>43809</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47">
+        <v>800</v>
+      </c>
+      <c r="E47">
+        <v>1.6</v>
+      </c>
+      <c r="F47">
+        <v>5.9</v>
+      </c>
+      <c r="G47">
+        <v>3</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
         <v>0</v>
       </c>
     </row>
@@ -2202,7 +3188,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2239,7 +3225,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2">
-        <v>43494</v>
+        <v>43424</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -2248,16 +3234,16 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>16.4</v>
+        <v>11.1</v>
       </c>
       <c r="F2">
-        <v>6.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -2268,7 +3254,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2">
-        <v>43501</v>
+        <v>43431</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -2277,19 +3263,19 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>6.5</v>
       </c>
       <c r="F3">
-        <v>3.5</v>
+        <v>5.7</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -2297,7 +3283,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2">
-        <v>43508</v>
+        <v>43438</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -2306,19 +3292,19 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="E4">
-        <v>22.4</v>
+        <v>19</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -2326,7 +3312,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2">
-        <v>43515</v>
+        <v>43445</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -2335,19 +3321,19 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>12.9</v>
+        <v>22.3</v>
       </c>
       <c r="F5">
-        <v>9.800000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -2355,7 +3341,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2">
-        <v>43522</v>
+        <v>43452</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -2367,16 +3353,16 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.9</v>
+        <v>15.4</v>
       </c>
       <c r="F6">
-        <v>7.3</v>
+        <v>9</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -2384,7 +3370,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2">
-        <v>43529</v>
+        <v>43459</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -2393,16 +3379,16 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E7">
+        <v>18.7</v>
+      </c>
+      <c r="F7">
+        <v>5.5</v>
+      </c>
+      <c r="G7">
         <v>8</v>
-      </c>
-      <c r="F7">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -2413,7 +3399,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="2">
-        <v>43536</v>
+        <v>43466</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -2422,19 +3408,19 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="E8">
-        <v>23.3</v>
+        <v>15.4</v>
       </c>
       <c r="F8">
-        <v>3.2</v>
+        <v>6.1</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2442,7 +3428,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="2">
-        <v>43543</v>
+        <v>43473</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -2451,19 +3437,19 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="E9">
-        <v>13.7</v>
+        <v>17.4</v>
       </c>
       <c r="F9">
-        <v>5.1</v>
+        <v>7.5</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2471,7 +3457,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="2">
-        <v>43550</v>
+        <v>43480</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -2480,16 +3466,16 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E10">
-        <v>11.6</v>
+        <v>14.3</v>
       </c>
       <c r="F10">
-        <v>8.9</v>
+        <v>6.1</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -2500,7 +3486,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="2">
-        <v>43557</v>
+        <v>43487</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -2509,19 +3495,19 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>21.7</v>
+        <v>1.8</v>
       </c>
       <c r="F11">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2529,7 +3515,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="2">
-        <v>43564</v>
+        <v>43494</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -2538,16 +3524,16 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="E12">
-        <v>20.5</v>
+        <v>4.9</v>
       </c>
       <c r="F12">
-        <v>6.8</v>
+        <v>5.5</v>
       </c>
       <c r="G12">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2558,7 +3544,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="2">
-        <v>43571</v>
+        <v>43501</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -2567,19 +3553,19 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="E13">
-        <v>3.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F13">
-        <v>8.300000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -2587,7 +3573,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2">
-        <v>43578</v>
+        <v>43508</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -2596,19 +3582,19 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="E14">
-        <v>17.4</v>
+        <v>2.3</v>
       </c>
       <c r="F14">
-        <v>8.6</v>
+        <v>6</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -2616,7 +3602,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="2">
-        <v>43585</v>
+        <v>43515</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -2628,16 +3614,16 @@
         <v>20</v>
       </c>
       <c r="E15">
-        <v>21.8</v>
+        <v>10.7</v>
       </c>
       <c r="F15">
-        <v>8.800000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -2645,7 +3631,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="2">
-        <v>43592</v>
+        <v>43522</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -2654,19 +3640,19 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="E16">
-        <v>12.3</v>
+        <v>1.9</v>
       </c>
       <c r="F16">
-        <v>10.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -2674,7 +3660,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="2">
-        <v>43599</v>
+        <v>43529</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -2683,19 +3669,19 @@
         <v>14</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E17">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="F17">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="G17">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -2703,7 +3689,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="2">
-        <v>43606</v>
+        <v>43536</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -2712,19 +3698,19 @@
         <v>14</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>21</v>
+        <v>6.7</v>
       </c>
       <c r="F18">
-        <v>8.6</v>
+        <v>5</v>
       </c>
       <c r="G18">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -2732,7 +3718,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="2">
-        <v>43613</v>
+        <v>43543</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
@@ -2741,19 +3727,19 @@
         <v>14</v>
       </c>
       <c r="D19">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="E19">
-        <v>18.3</v>
+        <v>5.5</v>
       </c>
       <c r="F19">
-        <v>8</v>
+        <v>8.9</v>
       </c>
       <c r="G19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2761,7 +3747,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="2">
-        <v>43620</v>
+        <v>43550</v>
       </c>
       <c r="B20" t="s">
         <v>13</v>
@@ -2770,16 +3756,16 @@
         <v>14</v>
       </c>
       <c r="D20">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E20">
-        <v>2.3</v>
+        <v>21.4</v>
       </c>
       <c r="F20">
-        <v>6</v>
+        <v>7.3</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2790,7 +3776,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="2">
-        <v>43627</v>
+        <v>43557</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
@@ -2799,19 +3785,19 @@
         <v>14</v>
       </c>
       <c r="D21">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>8.199999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="F21">
-        <v>3.6</v>
+        <v>6.6</v>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2819,7 +3805,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="2">
-        <v>43634</v>
+        <v>43564</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
@@ -2828,16 +3814,16 @@
         <v>14</v>
       </c>
       <c r="D22">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E22">
-        <v>9.300000000000001</v>
+        <v>15.5</v>
       </c>
       <c r="F22">
-        <v>9.1</v>
+        <v>7.9</v>
       </c>
       <c r="G22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2848,7 +3834,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="2">
-        <v>43641</v>
+        <v>43571</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
@@ -2857,16 +3843,16 @@
         <v>14</v>
       </c>
       <c r="D23">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>4.6</v>
+        <v>7.9</v>
       </c>
       <c r="F23">
-        <v>8.6</v>
+        <v>5</v>
       </c>
       <c r="G23">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2877,7 +3863,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="2">
-        <v>43648</v>
+        <v>43578</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
@@ -2889,13 +3875,13 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.300000000000001</v>
+        <v>16.9</v>
       </c>
       <c r="F24">
-        <v>9.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="G24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2906,7 +3892,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="2">
-        <v>43655</v>
+        <v>43585</v>
       </c>
       <c r="B25" t="s">
         <v>13</v>
@@ -2915,16 +3901,16 @@
         <v>14</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E25">
-        <v>20.5</v>
+        <v>13.6</v>
       </c>
       <c r="F25">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -2935,7 +3921,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="2">
-        <v>43662</v>
+        <v>43592</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>
@@ -2947,10 +3933,10 @@
         <v>1000</v>
       </c>
       <c r="E26">
-        <v>3.2</v>
+        <v>15.8</v>
       </c>
       <c r="F26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G26">
         <v>6</v>
@@ -2964,7 +3950,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="2">
-        <v>43669</v>
+        <v>43599</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
@@ -2973,19 +3959,19 @@
         <v>14</v>
       </c>
       <c r="D27">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E27">
-        <v>13.9</v>
+        <v>5.6</v>
       </c>
       <c r="F27">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2993,7 +3979,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="2">
-        <v>43676</v>
+        <v>43606</v>
       </c>
       <c r="B28" t="s">
         <v>13</v>
@@ -3002,16 +3988,16 @@
         <v>14</v>
       </c>
       <c r="D28">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>1.7</v>
+        <v>5.9</v>
       </c>
       <c r="F28">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="G28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -3022,7 +4008,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="2">
-        <v>43683</v>
+        <v>43613</v>
       </c>
       <c r="B29" t="s">
         <v>13</v>
@@ -3031,13 +4017,13 @@
         <v>14</v>
       </c>
       <c r="D29">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="E29">
-        <v>22.1</v>
+        <v>7.2</v>
       </c>
       <c r="F29">
-        <v>8.9</v>
+        <v>5.9</v>
       </c>
       <c r="G29">
         <v>9</v>
@@ -3051,7 +4037,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="2">
-        <v>43690</v>
+        <v>43620</v>
       </c>
       <c r="B30" t="s">
         <v>13</v>
@@ -3060,21 +4046,514 @@
         <v>14</v>
       </c>
       <c r="D30">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>12</v>
+        <v>6.2</v>
       </c>
       <c r="F30">
+        <v>7.4</v>
+      </c>
+      <c r="G30">
+        <v>9</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="2">
+        <v>43627</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>15.7</v>
+      </c>
+      <c r="F31">
+        <v>5.2</v>
+      </c>
+      <c r="G31">
+        <v>8</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="2">
+        <v>43634</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>21.2</v>
+      </c>
+      <c r="F32">
+        <v>7.8</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="2">
+        <v>43641</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33">
+        <v>50</v>
+      </c>
+      <c r="E33">
+        <v>0.7</v>
+      </c>
+      <c r="F33">
+        <v>7.8</v>
+      </c>
+      <c r="G33">
+        <v>8</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="2">
+        <v>43648</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>19.1</v>
+      </c>
+      <c r="F34">
+        <v>7.3</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="2">
+        <v>43655</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35">
+        <v>20</v>
+      </c>
+      <c r="E35">
+        <v>7.3</v>
+      </c>
+      <c r="F35">
+        <v>7.3</v>
+      </c>
+      <c r="G35">
+        <v>8</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="2">
+        <v>43662</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36">
+        <v>800</v>
+      </c>
+      <c r="E36">
+        <v>19.9</v>
+      </c>
+      <c r="F36">
         <v>9.4</v>
       </c>
-      <c r="G30">
-        <v>8</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="2">
+        <v>43669</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>9.9</v>
+      </c>
+      <c r="F37">
+        <v>8.5</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="2">
+        <v>43676</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>12.5</v>
+      </c>
+      <c r="F38">
+        <v>6.3</v>
+      </c>
+      <c r="G38">
+        <v>9</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="2">
+        <v>43683</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39">
+        <v>50</v>
+      </c>
+      <c r="E39">
+        <v>3.9</v>
+      </c>
+      <c r="F39">
+        <v>6.6</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="2">
+        <v>43690</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>20.1</v>
+      </c>
+      <c r="F40">
+        <v>6.1</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="2">
+        <v>43697</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41">
+        <v>1000</v>
+      </c>
+      <c r="E41">
+        <v>9.4</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="2">
+        <v>43704</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>19.5</v>
+      </c>
+      <c r="F42">
+        <v>9.1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="2">
+        <v>43711</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>6.7</v>
+      </c>
+      <c r="F43">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="G43">
+        <v>10</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="2">
+        <v>43718</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>3.6</v>
+      </c>
+      <c r="F44">
+        <v>7.1</v>
+      </c>
+      <c r="G44">
+        <v>7</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="2">
+        <v>43725</v>
+      </c>
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>20.6</v>
+      </c>
+      <c r="F45">
+        <v>7.5</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="2">
+        <v>43732</v>
+      </c>
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46">
+        <v>1000</v>
+      </c>
+      <c r="E46">
+        <v>3.7</v>
+      </c>
+      <c r="F46">
+        <v>7.3</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="2">
+        <v>43739</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47">
+        <v>800</v>
+      </c>
+      <c r="E47">
+        <v>1.1</v>
+      </c>
+      <c r="F47">
+        <v>8.1</v>
+      </c>
+      <c r="G47">
+        <v>3</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
         <v>0</v>
       </c>
     </row>
@@ -3085,7 +4564,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3122,7 +4601,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2">
-        <v>43487</v>
+        <v>43529</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -3134,13 +4613,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>17.9</v>
+        <v>11.1</v>
       </c>
       <c r="F2">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -3151,7 +4630,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2">
-        <v>43494</v>
+        <v>43536</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -3160,19 +4639,19 @@
         <v>16</v>
       </c>
       <c r="D3">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="E3">
-        <v>1.1</v>
+        <v>6</v>
       </c>
       <c r="F3">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -3180,7 +4659,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2">
-        <v>43501</v>
+        <v>43543</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -3189,16 +4668,16 @@
         <v>16</v>
       </c>
       <c r="D4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>21.8</v>
+        <v>17.7</v>
       </c>
       <c r="F4">
-        <v>4.6</v>
+        <v>9.5</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -3209,7 +4688,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2">
-        <v>43508</v>
+        <v>43550</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -3218,19 +4697,19 @@
         <v>16</v>
       </c>
       <c r="D5">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>10.7</v>
+        <v>22.3</v>
       </c>
       <c r="F5">
-        <v>8.4</v>
+        <v>8.1</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -3238,7 +4717,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2">
-        <v>43515</v>
+        <v>43557</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -3250,16 +4729,16 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>16.2</v>
+        <v>14.2</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>7.9</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -3267,7 +4746,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2">
-        <v>43522</v>
+        <v>43564</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -3276,19 +4755,19 @@
         <v>16</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="E7">
-        <v>5.9</v>
+        <v>19.2</v>
       </c>
       <c r="F7">
-        <v>7.1</v>
+        <v>4.7</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -3296,7 +4775,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="2">
-        <v>43529</v>
+        <v>43571</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -3305,19 +4784,19 @@
         <v>16</v>
       </c>
       <c r="D8">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="E8">
-        <v>23.8</v>
+        <v>17.1</v>
       </c>
       <c r="F8">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -3325,7 +4804,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="2">
-        <v>43536</v>
+        <v>43578</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -3334,16 +4813,16 @@
         <v>16</v>
       </c>
       <c r="D9">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>11.7</v>
+        <v>15.6</v>
       </c>
       <c r="F9">
-        <v>6.5</v>
+        <v>7.9</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -3354,7 +4833,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="2">
-        <v>43543</v>
+        <v>43585</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -3363,19 +4842,19 @@
         <v>16</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E10">
-        <v>11.1</v>
+        <v>15.6</v>
       </c>
       <c r="F10">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -3383,7 +4862,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="2">
-        <v>43550</v>
+        <v>43592</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -3395,16 +4874,16 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>2.6</v>
       </c>
       <c r="F11">
-        <v>7.8</v>
+        <v>5.2</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -3412,7 +4891,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="2">
-        <v>43557</v>
+        <v>43599</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -3421,16 +4900,16 @@
         <v>16</v>
       </c>
       <c r="D12">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="E12">
-        <v>23.1</v>
+        <v>5.5</v>
       </c>
       <c r="F12">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="G12">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -3441,7 +4920,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="2">
-        <v>43564</v>
+        <v>43606</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -3450,16 +4929,16 @@
         <v>16</v>
       </c>
       <c r="D13">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E13">
-        <v>5.8</v>
+        <v>6.8</v>
       </c>
       <c r="F13">
-        <v>9.199999999999999</v>
+        <v>5.6</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -3470,7 +4949,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2">
-        <v>43571</v>
+        <v>43613</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -3479,19 +4958,19 @@
         <v>16</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E14">
-        <v>16.4</v>
+        <v>1.1</v>
       </c>
       <c r="F14">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -3499,7 +4978,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="2">
-        <v>43578</v>
+        <v>43620</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -3511,13 +4990,13 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>19.9</v>
+        <v>10.7</v>
       </c>
       <c r="F15">
-        <v>8.800000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -3528,7 +5007,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="2">
-        <v>43585</v>
+        <v>43627</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -3537,16 +5016,16 @@
         <v>16</v>
       </c>
       <c r="D16">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="E16">
-        <v>10.7</v>
+        <v>3.1</v>
       </c>
       <c r="F16">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -3557,7 +5036,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="2">
-        <v>43592</v>
+        <v>43634</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -3566,19 +5045,19 @@
         <v>16</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E17">
-        <v>11</v>
+        <v>11.7</v>
       </c>
       <c r="F17">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="G17">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -3586,7 +5065,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="2">
-        <v>43599</v>
+        <v>43641</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -3598,16 +5077,16 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>21.5</v>
+        <v>7.2</v>
       </c>
       <c r="F18">
-        <v>10.3</v>
+        <v>5.6</v>
       </c>
       <c r="G18">
         <v>8</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -3615,7 +5094,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="2">
-        <v>43606</v>
+        <v>43648</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
@@ -3624,16 +5103,16 @@
         <v>16</v>
       </c>
       <c r="D19">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>20.6</v>
+        <v>3.6</v>
       </c>
       <c r="F19">
-        <v>5.8</v>
+        <v>7.8</v>
       </c>
       <c r="G19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -3644,7 +5123,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="2">
-        <v>43613</v>
+        <v>43655</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
@@ -3653,19 +5132,19 @@
         <v>16</v>
       </c>
       <c r="D20">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="E20">
-        <v>1.3</v>
+        <v>22.6</v>
       </c>
       <c r="F20">
-        <v>7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -3673,7 +5152,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="2">
-        <v>43620</v>
+        <v>43662</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
@@ -3682,19 +5161,19 @@
         <v>16</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E21">
-        <v>9.4</v>
+        <v>11.2</v>
       </c>
       <c r="F21">
-        <v>6.1</v>
+        <v>7.1</v>
       </c>
       <c r="G21">
         <v>8</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -3702,7 +5181,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="2">
-        <v>43627</v>
+        <v>43669</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
@@ -3711,19 +5190,19 @@
         <v>16</v>
       </c>
       <c r="D22">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="E22">
-        <v>9.300000000000001</v>
+        <v>14.7</v>
       </c>
       <c r="F22">
-        <v>5.8</v>
+        <v>7.9</v>
       </c>
       <c r="G22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -3731,7 +5210,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="2">
-        <v>43634</v>
+        <v>43676</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
@@ -3740,16 +5219,16 @@
         <v>16</v>
       </c>
       <c r="D23">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E23">
+        <v>7.4</v>
+      </c>
+      <c r="F23">
+        <v>4.8</v>
+      </c>
+      <c r="G23">
         <v>7</v>
-      </c>
-      <c r="F23">
-        <v>7</v>
-      </c>
-      <c r="G23">
-        <v>9</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -3760,7 +5239,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="2">
-        <v>43641</v>
+        <v>43683</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
@@ -3772,13 +5251,13 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>5.9</v>
+        <v>16.6</v>
       </c>
       <c r="F24">
-        <v>9.1</v>
+        <v>8.6</v>
       </c>
       <c r="G24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -3789,7 +5268,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="2">
-        <v>43648</v>
+        <v>43690</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
@@ -3798,19 +5277,19 @@
         <v>16</v>
       </c>
       <c r="D25">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E25">
-        <v>18.8</v>
+        <v>12.9</v>
       </c>
       <c r="F25">
-        <v>10.6</v>
+        <v>5.7</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -3818,7 +5297,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="2">
-        <v>43655</v>
+        <v>43697</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
@@ -3827,19 +5306,19 @@
         <v>16</v>
       </c>
       <c r="D26">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>15.3</v>
       </c>
       <c r="F26">
-        <v>9.699999999999999</v>
+        <v>4</v>
       </c>
       <c r="G26">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -3847,7 +5326,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="2">
-        <v>43662</v>
+        <v>43704</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
@@ -3859,16 +5338,16 @@
         <v>1000</v>
       </c>
       <c r="E27">
-        <v>16.8</v>
+        <v>4</v>
       </c>
       <c r="F27">
-        <v>6</v>
+        <v>8.6</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -3876,7 +5355,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="2">
-        <v>43669</v>
+        <v>43711</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
@@ -3888,16 +5367,16 @@
         <v>1000</v>
       </c>
       <c r="E28">
-        <v>2.5</v>
+        <v>4.9</v>
       </c>
       <c r="F28">
-        <v>5.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -3905,7 +5384,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="2">
-        <v>43676</v>
+        <v>43718</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
@@ -3914,19 +5393,19 @@
         <v>16</v>
       </c>
       <c r="D29">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="E29">
-        <v>21.4</v>
+        <v>7.3</v>
       </c>
       <c r="F29">
-        <v>7.9</v>
+        <v>6.1</v>
       </c>
       <c r="G29">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -3934,7 +5413,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="2">
-        <v>43683</v>
+        <v>43725</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
@@ -3943,21 +5422,514 @@
         <v>16</v>
       </c>
       <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>4.4</v>
+      </c>
+      <c r="F30">
+        <v>8.1</v>
+      </c>
+      <c r="G30">
+        <v>8</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="2">
+        <v>43732</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>18</v>
+      </c>
+      <c r="F31">
+        <v>6</v>
+      </c>
+      <c r="G31">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="2">
+        <v>43739</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>23</v>
+      </c>
+      <c r="F32">
+        <v>8.5</v>
+      </c>
+      <c r="G32">
+        <v>5</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="2">
+        <v>43746</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33">
+        <v>1000</v>
+      </c>
+      <c r="E33">
+        <v>2.3</v>
+      </c>
+      <c r="F33">
+        <v>7.4</v>
+      </c>
+      <c r="G33">
+        <v>6</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="2">
+        <v>43753</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>17.8</v>
+      </c>
+      <c r="F34">
+        <v>8.1</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="2">
+        <v>43760</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>6</v>
+      </c>
+      <c r="F35">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="G35">
+        <v>8</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="2">
+        <v>43767</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36">
+        <v>800</v>
+      </c>
+      <c r="E36">
+        <v>19.8</v>
+      </c>
+      <c r="F36">
+        <v>7</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="2">
+        <v>43774</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37">
         <v>20</v>
       </c>
-      <c r="E30">
-        <v>8.4</v>
-      </c>
-      <c r="F30">
-        <v>8.6</v>
-      </c>
-      <c r="G30">
-        <v>9</v>
-      </c>
-      <c r="H30">
-        <v>2</v>
-      </c>
-      <c r="I30">
+      <c r="E37">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="F37">
+        <v>7.5</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="2">
+        <v>43781</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38">
+        <v>20</v>
+      </c>
+      <c r="E38">
+        <v>12.5</v>
+      </c>
+      <c r="F38">
+        <v>7.6</v>
+      </c>
+      <c r="G38">
+        <v>7</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="2">
+        <v>43788</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39">
+        <v>50</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39">
+        <v>5.4</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="2">
+        <v>43795</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40">
+        <v>20</v>
+      </c>
+      <c r="E40">
+        <v>19.3</v>
+      </c>
+      <c r="F40">
+        <v>7.8</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="2">
+        <v>43802</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41">
+        <v>1000</v>
+      </c>
+      <c r="E41">
+        <v>7.1</v>
+      </c>
+      <c r="F41">
+        <v>5.9</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="2">
+        <v>43809</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42">
+        <v>30</v>
+      </c>
+      <c r="E42">
+        <v>18.9</v>
+      </c>
+      <c r="F42">
+        <v>7.1</v>
+      </c>
+      <c r="G42">
+        <v>5</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="2">
+        <v>43816</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43">
+        <v>30</v>
+      </c>
+      <c r="E43">
+        <v>6.6</v>
+      </c>
+      <c r="F43">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="G43">
+        <v>10</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="2">
+        <v>43823</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44">
+        <v>20</v>
+      </c>
+      <c r="E44">
+        <v>2.5</v>
+      </c>
+      <c r="F44">
+        <v>6.7</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="2">
+        <v>43830</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>19.9</v>
+      </c>
+      <c r="F45">
+        <v>6.2</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="2">
+        <v>43837</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46">
+        <v>200</v>
+      </c>
+      <c r="E46">
+        <v>3.2</v>
+      </c>
+      <c r="F46">
+        <v>7.3</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="2">
+        <v>43844</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47">
+        <v>1000</v>
+      </c>
+      <c r="E47">
+        <v>0.7</v>
+      </c>
+      <c r="F47">
+        <v>6.1</v>
+      </c>
+      <c r="G47">
+        <v>3</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
         <v>0</v>
       </c>
     </row>
@@ -3968,7 +5940,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4005,7 +5977,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2">
-        <v>43445</v>
+        <v>43452</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -4014,19 +5986,19 @@
         <v>18</v>
       </c>
       <c r="D2">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>19</v>
+        <v>11.1</v>
       </c>
       <c r="F2">
         <v>7.3</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -4034,7 +6006,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2">
-        <v>43452</v>
+        <v>43459</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -4043,19 +6015,19 @@
         <v>18</v>
       </c>
       <c r="D3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1.1</v>
+        <v>6.5</v>
       </c>
       <c r="F3">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -4063,7 +6035,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2">
-        <v>43459</v>
+        <v>43466</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -4072,16 +6044,16 @@
         <v>18</v>
       </c>
       <c r="D4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>21.2</v>
+        <v>17.7</v>
       </c>
       <c r="F4">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="G4">
         <v>5</v>
-      </c>
-      <c r="G4">
-        <v>9</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -4092,7 +6064,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2">
-        <v>43466</v>
+        <v>43473</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -4101,19 +6073,19 @@
         <v>18</v>
       </c>
       <c r="D5">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>13.8</v>
+        <v>23</v>
       </c>
       <c r="F5">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -4121,7 +6093,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2">
-        <v>43473</v>
+        <v>43480</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -4130,16 +6102,16 @@
         <v>18</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>14.8</v>
+        <v>15.4</v>
       </c>
       <c r="F6">
-        <v>5.1</v>
+        <v>9</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -4150,7 +6122,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2">
-        <v>43480</v>
+        <v>43487</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -4159,16 +6131,16 @@
         <v>18</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E7">
-        <v>6.4</v>
+        <v>18.7</v>
       </c>
       <c r="F7">
-        <v>6.6</v>
+        <v>5.6</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -4179,7 +6151,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="2">
-        <v>43487</v>
+        <v>43494</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
@@ -4188,16 +6160,16 @@
         <v>18</v>
       </c>
       <c r="D8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E8">
-        <v>23.1</v>
+        <v>16.4</v>
       </c>
       <c r="F8">
-        <v>5.3</v>
+        <v>6.1</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4208,7 +6180,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="2">
-        <v>43494</v>
+        <v>43501</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -4217,19 +6189,19 @@
         <v>18</v>
       </c>
       <c r="D9">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>10.8</v>
+        <v>16.8</v>
       </c>
       <c r="F9">
-        <v>6.5</v>
+        <v>7.7</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -4237,7 +6209,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="2">
-        <v>43501</v>
+        <v>43508</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -4246,19 +6218,19 @@
         <v>18</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E10">
-        <v>9.4</v>
+        <v>15.2</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -4266,7 +6238,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="2">
-        <v>43508</v>
+        <v>43515</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -4275,19 +6247,19 @@
         <v>18</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>21.7</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -4295,7 +6267,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="2">
-        <v>43515</v>
+        <v>43522</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -4304,16 +6276,16 @@
         <v>18</v>
       </c>
       <c r="D12">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="E12">
-        <v>22.3</v>
+        <v>4.9</v>
       </c>
       <c r="F12">
-        <v>8.699999999999999</v>
+        <v>6</v>
       </c>
       <c r="G12">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -4324,7 +6296,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="2">
-        <v>43522</v>
+        <v>43529</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -4336,16 +6308,16 @@
         <v>1000</v>
       </c>
       <c r="E13">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="F13">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -4353,7 +6325,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2">
-        <v>43529</v>
+        <v>43536</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -4362,19 +6334,19 @@
         <v>18</v>
       </c>
       <c r="D14">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="E14">
-        <v>17.4</v>
+        <v>2.2</v>
       </c>
       <c r="F14">
-        <v>6.1</v>
+        <v>6.9</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -4382,7 +6354,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="2">
-        <v>43536</v>
+        <v>43543</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -4394,16 +6366,16 @@
         <v>30</v>
       </c>
       <c r="E15">
-        <v>21.6</v>
+        <v>9.5</v>
       </c>
       <c r="F15">
-        <v>8.800000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -4411,7 +6383,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="2">
-        <v>43543</v>
+        <v>43550</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -4423,13 +6395,13 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.5</v>
+        <v>1.2</v>
       </c>
       <c r="F16">
-        <v>7.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -4440,7 +6412,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="2">
-        <v>43550</v>
+        <v>43557</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -4449,19 +6421,19 @@
         <v>18</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="E17">
-        <v>11</v>
+        <v>13.7</v>
       </c>
       <c r="F17">
-        <v>8.4</v>
+        <v>5.1</v>
       </c>
       <c r="G17">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -4469,7 +6441,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="2">
-        <v>43557</v>
+        <v>43564</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -4481,13 +6453,13 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>23.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F18">
-        <v>10.6</v>
+        <v>6</v>
       </c>
       <c r="G18">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -4498,7 +6470,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="2">
-        <v>43564</v>
+        <v>43571</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -4507,16 +6479,16 @@
         <v>18</v>
       </c>
       <c r="D19">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>20.1</v>
+        <v>4.5</v>
       </c>
       <c r="F19">
-        <v>3.9</v>
+        <v>8.9</v>
       </c>
       <c r="G19">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -4527,7 +6499,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="2">
-        <v>43571</v>
+        <v>43578</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
@@ -4536,19 +6508,19 @@
         <v>18</v>
       </c>
       <c r="D20">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>22.6</v>
       </c>
       <c r="F20">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -4556,7 +6528,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="2">
-        <v>43578</v>
+        <v>43585</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
@@ -4565,16 +6537,16 @@
         <v>18</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E21">
-        <v>9.300000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="F21">
-        <v>3.9</v>
+        <v>7.1</v>
       </c>
       <c r="G21">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -4585,7 +6557,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="2">
-        <v>43585</v>
+        <v>43592</v>
       </c>
       <c r="B22" t="s">
         <v>17</v>
@@ -4594,16 +6566,16 @@
         <v>18</v>
       </c>
       <c r="D22">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>10.7</v>
+        <v>15.5</v>
       </c>
       <c r="F22">
-        <v>4.9</v>
+        <v>7.3</v>
       </c>
       <c r="G22">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -4614,7 +6586,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="2">
-        <v>43592</v>
+        <v>43599</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
@@ -4623,19 +6595,19 @@
         <v>18</v>
       </c>
       <c r="D23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>2.2</v>
+        <v>6.7</v>
       </c>
       <c r="F23">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G23">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -4643,7 +6615,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="2">
-        <v>43599</v>
+        <v>43606</v>
       </c>
       <c r="B24" t="s">
         <v>17</v>
@@ -4652,19 +6624,19 @@
         <v>18</v>
       </c>
       <c r="D24">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E24">
-        <v>8.4</v>
+        <v>18.5</v>
       </c>
       <c r="F24">
-        <v>7.5</v>
+        <v>8.6</v>
       </c>
       <c r="G24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -4672,7 +6644,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="2">
-        <v>43606</v>
+        <v>43613</v>
       </c>
       <c r="B25" t="s">
         <v>17</v>
@@ -4681,16 +6653,16 @@
         <v>18</v>
       </c>
       <c r="D25">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="E25">
-        <v>19.8</v>
+        <v>11.7</v>
       </c>
       <c r="F25">
-        <v>10.7</v>
+        <v>6.9</v>
       </c>
       <c r="G25">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -4701,7 +6673,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="2">
-        <v>43613</v>
+        <v>43620</v>
       </c>
       <c r="B26" t="s">
         <v>17</v>
@@ -4710,16 +6682,16 @@
         <v>18</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E26">
-        <v>0.8</v>
+        <v>16.6</v>
       </c>
       <c r="F26">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="G26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -4730,7 +6702,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="2">
-        <v>43620</v>
+        <v>43627</v>
       </c>
       <c r="B27" t="s">
         <v>17</v>
@@ -4739,16 +6711,16 @@
         <v>18</v>
       </c>
       <c r="D27">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="E27">
-        <v>16.4</v>
+        <v>4</v>
       </c>
       <c r="F27">
-        <v>6.1</v>
+        <v>9.9</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -4759,7 +6731,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="2">
-        <v>43627</v>
+        <v>43634</v>
       </c>
       <c r="B28" t="s">
         <v>17</v>
@@ -4768,19 +6740,19 @@
         <v>18</v>
       </c>
       <c r="D28">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="E28">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="F28">
-        <v>3.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G28">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -4788,7 +6760,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="2">
-        <v>43634</v>
+        <v>43641</v>
       </c>
       <c r="B29" t="s">
         <v>17</v>
@@ -4797,19 +6769,19 @@
         <v>18</v>
       </c>
       <c r="D29">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="E29">
-        <v>23.4</v>
+        <v>5.9</v>
       </c>
       <c r="F29">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="G29">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -4817,7 +6789,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="2">
-        <v>43641</v>
+        <v>43648</v>
       </c>
       <c r="B30" t="s">
         <v>17</v>
@@ -4826,21 +6798,514 @@
         <v>18</v>
       </c>
       <c r="D30">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>9.699999999999999</v>
+        <v>4.9</v>
       </c>
       <c r="F30">
+        <v>8.4</v>
+      </c>
+      <c r="G30">
+        <v>6</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="2">
+        <v>43655</v>
+      </c>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>16.4</v>
+      </c>
+      <c r="F31">
+        <v>5.3</v>
+      </c>
+      <c r="G31">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="2">
+        <v>43662</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>23.4</v>
+      </c>
+      <c r="F32">
+        <v>8</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="2">
+        <v>43669</v>
+      </c>
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33">
+        <v>1000</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>9.1</v>
+      </c>
+      <c r="G33">
+        <v>9</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="2">
+        <v>43676</v>
+      </c>
+      <c r="B34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>18.4</v>
+      </c>
+      <c r="F34">
+        <v>7.8</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="2">
+        <v>43683</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>6.7</v>
+      </c>
+      <c r="F35">
+        <v>7.9</v>
+      </c>
+      <c r="G35">
+        <v>8</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="2">
+        <v>43690</v>
+      </c>
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36">
+        <v>1000</v>
+      </c>
+      <c r="E36">
+        <v>19.5</v>
+      </c>
+      <c r="F36">
+        <v>8.1</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="2">
+        <v>43697</v>
+      </c>
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
         <v>8.6</v>
       </c>
-      <c r="G30">
+      <c r="F37">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="2">
+        <v>43704</v>
+      </c>
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>13.1</v>
+      </c>
+      <c r="F38">
+        <v>6.5</v>
+      </c>
+      <c r="G38">
+        <v>5</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="2">
+        <v>43711</v>
+      </c>
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39">
+        <v>100</v>
+      </c>
+      <c r="E39">
+        <v>1.6</v>
+      </c>
+      <c r="F39">
+        <v>6</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="2">
+        <v>43718</v>
+      </c>
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>20.1</v>
+      </c>
+      <c r="F40">
+        <v>6.4</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="2">
+        <v>43725</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41">
+        <v>500</v>
+      </c>
+      <c r="E41">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="F41">
+        <v>5.3</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="2">
+        <v>43732</v>
+      </c>
+      <c r="B42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>19.8</v>
+      </c>
+      <c r="F42">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="G42">
+        <v>5</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="2">
+        <v>43739</v>
+      </c>
+      <c r="B43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="F43">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="G43">
         <v>9</v>
       </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30">
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="2">
+        <v>43746</v>
+      </c>
+      <c r="B44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>2.5</v>
+      </c>
+      <c r="F44">
+        <v>8</v>
+      </c>
+      <c r="G44">
+        <v>6</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="2">
+        <v>43753</v>
+      </c>
+      <c r="B45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>20.9</v>
+      </c>
+      <c r="F45">
+        <v>6.4</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="2">
+        <v>43760</v>
+      </c>
+      <c r="B46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46">
+        <v>1000</v>
+      </c>
+      <c r="E46">
+        <v>3.1</v>
+      </c>
+      <c r="F46">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
+      <c r="H46">
+        <v>2</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="2">
+        <v>43767</v>
+      </c>
+      <c r="B47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47">
+        <v>800</v>
+      </c>
+      <c r="E47">
+        <v>0.6</v>
+      </c>
+      <c r="F47">
+        <v>8</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
         <v>0</v>
       </c>
     </row>
